--- a/sql/SQL语句.xlsx
+++ b/sql/SQL语句.xlsx
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308">
   <si>
     <t>DDL</t>
   </si>
@@ -2955,6 +2955,12 @@
     <t>select user,host from mysql.user;</t>
   </si>
   <si>
+    <t>查看当前数据的连接数量</t>
+  </si>
+  <si>
+    <t>show processlist</t>
+  </si>
+  <si>
     <t>删除用户</t>
   </si>
   <si>
@@ -2991,9 +2997,21 @@
     </r>
   </si>
   <si>
+    <t>查看空闲连接的最大空闲时长(单位:秒)</t>
+  </si>
+  <si>
+    <t>show variables like 'wait_timeout'</t>
+  </si>
+  <si>
     <t>角色</t>
   </si>
   <si>
+    <t>查看数据库的最大连接数量</t>
+  </si>
+  <si>
+    <t>show variables like 'max_connections';</t>
+  </si>
+  <si>
     <t>插入数据</t>
   </si>
   <si>
@@ -8647,6 +8665,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>set sql_safe_updates = [</t>
     </r>
     <r>
@@ -9263,10 +9288,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9297,13 +9322,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -9313,7 +9361,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9335,14 +9422,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9356,88 +9465,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9517,25 +9549,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9547,13 +9579,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9565,13 +9603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9589,31 +9621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9625,13 +9639,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9643,7 +9663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9655,13 +9681,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9679,25 +9723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9908,17 +9940,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9934,6 +9966,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9956,30 +9999,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -9988,11 +10007,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10004,10 +10036,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10016,137 +10048,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10226,6 +10258,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10579,8 +10614,8 @@
   <sheetPr/>
   <dimension ref="B14:Y84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="J34" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="Q4" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
@@ -10596,7 +10631,7 @@
     <col min="16" max="16" width="249.111111111111" style="1" customWidth="1"/>
     <col min="17" max="17" width="109.666666666667" style="1" customWidth="1"/>
     <col min="18" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="53.4444444444444" style="3" customWidth="1"/>
+    <col min="21" max="21" width="66.5555555555556" style="3" customWidth="1"/>
     <col min="22" max="22" width="101" style="1" customWidth="1"/>
     <col min="23" max="23" width="113.444444444444" style="1" customWidth="1"/>
     <col min="24" max="24" width="45.8888888888889" style="1" customWidth="1"/>
@@ -10826,29 +10861,43 @@
       <c r="P23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="U23" s="12"/>
+      <c r="U23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="Y23" s="16"/>
     </row>
     <row r="24" spans="2:25">
       <c r="B24" s="15"/>
       <c r="F24" s="16"/>
       <c r="O24" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U24" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V24" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="Y24" s="16"/>
     </row>
     <row r="25" ht="22.95" spans="2:25">
       <c r="B25" s="15"/>
       <c r="F25" s="16"/>
       <c r="P25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U25" s="27"/>
-      <c r="V25" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="U25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="W25" s="18"/>
       <c r="X25" s="18"/>
       <c r="Y25" s="19"/>
@@ -10857,16 +10906,16 @@
       <c r="B26" s="15"/>
       <c r="F26" s="16"/>
       <c r="H26" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
@@ -10877,16 +10926,16 @@
       <c r="B27" s="15"/>
       <c r="F27" s="16"/>
       <c r="H27" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" ht="22.95" spans="2:25">
@@ -10896,19 +10945,19 @@
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
       <c r="H28" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -10917,127 +10966,127 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="H29" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="U31" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="H33" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:25">
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -11046,79 +11095,79 @@
     </row>
     <row r="37" spans="2:22">
       <c r="B37" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="2:17">
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="8:25">
       <c r="H40" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U40" s="3" t="s">
         <v>7</v>
@@ -11130,736 +11179,736 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" ht="22.95" spans="2:17">
       <c r="B44" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="2:25">
       <c r="B45" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V45" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W45" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="X45" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y45" s="32" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="W45" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="X45" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y45" s="33" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="2:25">
       <c r="B46" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="U46" s="29" t="s">
-        <v>149</v>
+        <v>154</v>
+      </c>
+      <c r="U46" s="30" t="s">
+        <v>155</v>
       </c>
       <c r="V46" s="11" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="W46" s="11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="X46" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y46" s="33" t="s">
-        <v>153</v>
+        <v>158</v>
+      </c>
+      <c r="Y46" s="34" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="2:25">
       <c r="B47" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="U47" s="29" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="U47" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="W47" s="11" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X47" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y47" s="33" t="s">
-        <v>161</v>
+        <v>166</v>
+      </c>
+      <c r="Y47" s="34" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="2:25">
       <c r="B48" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U48" s="29" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="U48" s="30" t="s">
+        <v>172</v>
       </c>
       <c r="V48" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="W48" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="X48" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y48" s="34" t="s">
         <v>167</v>
-      </c>
-      <c r="W48" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="X48" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y48" s="33" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="49" spans="2:25">
       <c r="B49" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="U49" s="29" t="s">
-        <v>174</v>
+        <v>179</v>
+      </c>
+      <c r="U49" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="V49" s="11" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="W49" s="11" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="X49" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y49" s="33" t="s">
-        <v>161</v>
+        <v>183</v>
+      </c>
+      <c r="Y49" s="34" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="2:25">
       <c r="B50" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="U50" s="29" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+      <c r="U50" s="30" t="s">
+        <v>188</v>
       </c>
       <c r="V50" s="11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="W50" s="11" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="X50" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y50" s="33"/>
+        <v>190</v>
+      </c>
+      <c r="Y50" s="34"/>
     </row>
     <row r="51" spans="2:25">
       <c r="B51" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="U51" s="29" t="s">
-        <v>189</v>
+        <v>194</v>
+      </c>
+      <c r="U51" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="V51" s="11" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="W51" s="11" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="X51" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y51" s="33"/>
+        <v>190</v>
+      </c>
+      <c r="Y51" s="34"/>
     </row>
     <row r="52" spans="2:25">
       <c r="B52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="U52" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="W52" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="U52" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="V52" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="W52" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="X52" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y52" s="33"/>
+        <v>190</v>
+      </c>
+      <c r="Y52" s="34"/>
     </row>
     <row r="53" ht="22.95" spans="2:25">
       <c r="B53" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="U53" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="V53" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="W53" s="31"/>
-      <c r="X53" s="31"/>
-      <c r="Y53" s="35"/>
+        <v>204</v>
+      </c>
+      <c r="U53" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="V53" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="36"/>
     </row>
     <row r="54" ht="22.95" spans="2:16">
       <c r="B54" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="15:24">
       <c r="O55" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V55" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W55" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="X55" s="32" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="W55" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="X55" s="33" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="2:24">
       <c r="B56" s="22" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C56" s="3"/>
       <c r="P56" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="U56" s="29" t="s">
-        <v>209</v>
+        <v>214</v>
+      </c>
+      <c r="U56" s="30" t="s">
+        <v>215</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="X56" s="33" t="s">
-        <v>211</v>
+        <v>216</v>
+      </c>
+      <c r="X56" s="34" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="2:24">
       <c r="B57" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="U57" s="29" t="s">
-        <v>216</v>
+        <v>221</v>
+      </c>
+      <c r="U57" s="30" t="s">
+        <v>222</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="W57" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="X57" s="33" t="s">
-        <v>218</v>
+        <v>173</v>
+      </c>
+      <c r="W57" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="X57" s="34" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="2:24">
       <c r="B58" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="U58" s="29" t="s">
-        <v>223</v>
+        <v>228</v>
+      </c>
+      <c r="U58" s="30" t="s">
+        <v>229</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="X58" s="33" t="s">
-        <v>225</v>
+        <v>230</v>
+      </c>
+      <c r="X58" s="34" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="2:24">
       <c r="B59" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="U59" s="29" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+      <c r="U59" s="30" t="s">
+        <v>236</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="X59" s="33" t="s">
-        <v>232</v>
+        <v>237</v>
+      </c>
+      <c r="X59" s="34" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="60" ht="22.95" spans="15:24">
       <c r="O60" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="U60" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="V60" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="W60" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="X60" s="35" t="s">
-        <v>237</v>
+        <v>240</v>
+      </c>
+      <c r="U60" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="V60" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="W60" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="X60" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="61" ht="22.95" spans="2:16">
       <c r="B61" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="2:23">
       <c r="B62" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="V62" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="W62" s="32" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="V62" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="W62" s="33" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="2:23">
       <c r="B63" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="U63" s="29" t="s">
-        <v>250</v>
+        <v>255</v>
+      </c>
+      <c r="U63" s="30" t="s">
+        <v>256</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="W63" s="33" t="s">
-        <v>252</v>
+        <v>257</v>
+      </c>
+      <c r="W63" s="34" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="15:23">
       <c r="O64" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="U64" s="29" t="s">
-        <v>255</v>
+        <v>260</v>
+      </c>
+      <c r="U64" s="30" t="s">
+        <v>261</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="W64" s="33" t="s">
-        <v>257</v>
+        <v>262</v>
+      </c>
+      <c r="W64" s="34" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="2:23">
       <c r="B65" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C65" s="3"/>
       <c r="O65" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="U65" s="29" t="s">
-        <v>260</v>
+        <v>265</v>
+      </c>
+      <c r="U65" s="30" t="s">
+        <v>266</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="W65" s="33" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="W65" s="34" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="2:23">
       <c r="B66" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="U66" s="29" t="s">
-        <v>266</v>
+        <v>271</v>
+      </c>
+      <c r="U66" s="30" t="s">
+        <v>272</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="W66" s="33" t="s">
-        <v>267</v>
+        <v>257</v>
+      </c>
+      <c r="W66" s="34" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="2:23">
       <c r="B67" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="U67" s="29" t="s">
-        <v>270</v>
+        <v>275</v>
+      </c>
+      <c r="U67" s="30" t="s">
+        <v>276</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="W67" s="33" t="s">
-        <v>272</v>
+        <v>277</v>
+      </c>
+      <c r="W67" s="34" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="2:23">
       <c r="B68" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="U68" s="29" t="s">
-        <v>275</v>
+        <v>280</v>
+      </c>
+      <c r="U68" s="30" t="s">
+        <v>281</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="W68" s="33" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="W68" s="34" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="2:23">
       <c r="B69" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="U69" s="29" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+      <c r="U69" s="30" t="s">
+        <v>286</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="W69" s="33" t="s">
-        <v>282</v>
+        <v>287</v>
+      </c>
+      <c r="W69" s="34" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="21:23">
-      <c r="U70" s="29" t="s">
-        <v>283</v>
+      <c r="U70" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="W70" s="33" t="s">
-        <v>284</v>
+        <v>287</v>
+      </c>
+      <c r="W70" s="34" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="2:23">
       <c r="B71" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="U71" s="29" t="s">
-        <v>286</v>
+      <c r="U71" s="30" t="s">
+        <v>292</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="W71" s="33" t="s">
-        <v>288</v>
+        <v>293</v>
+      </c>
+      <c r="W71" s="34" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="72" ht="22.95" spans="2:23">
       <c r="B72" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="U72" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="V72" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="W72" s="35" t="s">
-        <v>292</v>
+        <v>296</v>
+      </c>
+      <c r="U72" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="V72" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="W72" s="36" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="22:25">

--- a/sql/SQL语句.xlsx
+++ b/sql/SQL语句.xlsx
@@ -10654,7 +10654,7 @@
   <dimension ref="B14:Y88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="S7" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>

--- a/sql/SQL语句.xlsx
+++ b/sql/SQL语句.xlsx
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314">
   <si>
     <t>DDL</t>
   </si>
@@ -3390,6 +3390,12 @@
     </r>
   </si>
   <si>
+    <t>查看binlog状态</t>
+  </si>
+  <si>
+    <t>show master status</t>
+  </si>
+  <si>
     <t>删除数据</t>
   </si>
   <si>
@@ -3649,6 +3655,12 @@
       </rPr>
       <t>]</t>
     </r>
+  </si>
+  <si>
+    <t>查看binlog是否开启</t>
+  </si>
+  <si>
+    <t>show variables like 'log_bin';</t>
   </si>
   <si>
     <t>表格</t>
@@ -9293,8 +9305,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -9342,38 +9354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9404,7 +9385,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9412,7 +9393,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9434,26 +9452,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -9477,9 +9482,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9561,114 +9573,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9681,19 +9585,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9711,13 +9741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9730,18 +9754,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9952,6 +9964,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -9982,50 +10018,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -10040,6 +10032,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -10048,10 +10060,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10060,137 +10072,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10275,41 +10287,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -10653,8 +10641,8 @@
   <sheetPr/>
   <dimension ref="B14:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="S7" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="S16" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
@@ -10925,21 +10913,21 @@
       </c>
       <c r="Y24" s="16"/>
     </row>
-    <row r="25" ht="22.95" spans="2:25">
+    <row r="25" spans="2:25">
       <c r="B25" s="15"/>
       <c r="F25" s="16"/>
       <c r="P25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U25" s="28" t="s">
+      <c r="U25" s="12" t="s">
         <v>55</v>
       </c>
       <c r="V25" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="36"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="16"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="15"/>
@@ -10956,15 +10944,15 @@
       <c r="P26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U26" s="30" t="s">
+      <c r="U26" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="V26" s="31" t="s">
+      <c r="V26" s="28" t="s">
         <v>62</v>
       </c>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
-      <c r="Y26" s="37"/>
+      <c r="Y26" s="14"/>
     </row>
     <row r="27" spans="2:25">
       <c r="B27" s="15"/>
@@ -10981,8 +10969,13 @@
       <c r="P27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U27" s="30"/>
-      <c r="Y27" s="38"/>
+      <c r="U27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y27" s="16"/>
     </row>
     <row r="28" ht="22.95" spans="2:25">
       <c r="B28" s="17"/>
@@ -10991,288 +10984,293 @@
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
       <c r="H28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="Y28" s="38"/>
+        <v>71</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y28" s="16"/>
     </row>
     <row r="29" spans="2:25">
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="H29" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="Y29" s="38"/>
+        <v>77</v>
+      </c>
+      <c r="U29" s="12"/>
+      <c r="Y29" s="16"/>
     </row>
     <row r="30" spans="2:25">
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="Y30" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="U30" s="12"/>
+      <c r="Y30" s="16"/>
     </row>
     <row r="31" spans="2:25">
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
-      <c r="U31" s="30"/>
-      <c r="Y31" s="38"/>
+      <c r="U31" s="12"/>
+      <c r="Y31" s="16"/>
     </row>
     <row r="32" spans="8:25">
       <c r="H32" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U32" s="30"/>
-      <c r="Y32" s="38"/>
+        <v>88</v>
+      </c>
+      <c r="U32" s="12"/>
+      <c r="Y32" s="16"/>
     </row>
     <row r="33" spans="8:25">
       <c r="H33" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="U33" s="30"/>
-      <c r="Y33" s="38"/>
+        <v>90</v>
+      </c>
+      <c r="U33" s="12"/>
+      <c r="Y33" s="16"/>
     </row>
     <row r="34" spans="2:25">
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U34" s="30"/>
-      <c r="Y34" s="38"/>
+        <v>92</v>
+      </c>
+      <c r="U34" s="12"/>
+      <c r="Y34" s="16"/>
     </row>
     <row r="35" spans="2:25">
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U35" s="30"/>
-      <c r="Y35" s="38"/>
+        <v>94</v>
+      </c>
+      <c r="U35" s="12"/>
+      <c r="Y35" s="16"/>
     </row>
     <row r="36" spans="2:25">
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U36" s="30"/>
-      <c r="Y36" s="38"/>
+        <v>98</v>
+      </c>
+      <c r="U36" s="12"/>
+      <c r="Y36" s="16"/>
     </row>
     <row r="37" spans="2:25">
       <c r="B37" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U37" s="30"/>
-      <c r="Y37" s="38"/>
+        <v>102</v>
+      </c>
+      <c r="U37" s="12"/>
+      <c r="Y37" s="16"/>
     </row>
     <row r="38" spans="2:25">
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>63</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="U38" s="30"/>
-      <c r="Y38" s="38"/>
+        <v>105</v>
+      </c>
+      <c r="U38" s="12"/>
+      <c r="Y38" s="16"/>
     </row>
     <row r="39" spans="2:25">
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="U39" s="30"/>
-      <c r="Y39" s="38"/>
+        <v>111</v>
+      </c>
+      <c r="U39" s="12"/>
+      <c r="Y39" s="16"/>
     </row>
     <row r="40" ht="22.95" spans="8:25">
       <c r="H40" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U40" s="32"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="39"/>
+        <v>116</v>
+      </c>
+      <c r="U40" s="29"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="19"/>
     </row>
     <row r="41" spans="2:17">
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="2:17">
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="44" ht="22.95" spans="2:25">
+    <row r="44" spans="2:25">
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
@@ -11281,181 +11279,181 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="2:16">
       <c r="B49" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="2:16">
       <c r="B50" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="2:16">
       <c r="B51" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="2:25">
       <c r="B52" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" ht="22.95" spans="2:22">
+    <row r="53" spans="2:22">
       <c r="B53" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="54" ht="22.95" spans="2:16">
+    <row r="54" spans="2:16">
       <c r="B54" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="15:16">
       <c r="O55" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="2:25">
       <c r="B56" s="22" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C56" s="3"/>
       <c r="P56" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="U56" s="3" t="s">
         <v>7</v>
@@ -11467,544 +11465,543 @@
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="2:22">
       <c r="B59" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" ht="22.95" spans="15:16">
       <c r="O60" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="61" ht="22.95" spans="2:25">
+    <row r="61" spans="2:25">
       <c r="B61" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="W61" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="X61" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y61" s="40" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="W61" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="X61" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y61" s="32" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="2:25">
       <c r="B62" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="U62" s="35" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="U62" s="31" t="s">
+        <v>217</v>
       </c>
       <c r="V62" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="W62" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="X62" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y62" s="41" t="s">
-        <v>217</v>
+        <v>220</v>
+      </c>
+      <c r="Y62" s="33" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="2:25">
       <c r="B63" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="U63" s="35" t="s">
-        <v>222</v>
+        <v>225</v>
+      </c>
+      <c r="U63" s="31" t="s">
+        <v>226</v>
       </c>
       <c r="V63" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="W63" s="11" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="X63" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y63" s="41" t="s">
-        <v>226</v>
+        <v>229</v>
+      </c>
+      <c r="Y63" s="33" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="15:25">
       <c r="O64" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="U64" s="35" t="s">
-        <v>229</v>
+        <v>232</v>
+      </c>
+      <c r="U64" s="31" t="s">
+        <v>233</v>
       </c>
       <c r="V64" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="W64" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="X64" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y64" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="W64" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="X64" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y64" s="41" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="65" spans="2:25">
       <c r="B65" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C65" s="3"/>
       <c r="O65" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="U65" s="35" t="s">
-        <v>235</v>
+        <v>238</v>
+      </c>
+      <c r="U65" s="31" t="s">
+        <v>239</v>
       </c>
       <c r="V65" s="11" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="W65" s="11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="X65" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y65" s="41" t="s">
-        <v>226</v>
+        <v>242</v>
+      </c>
+      <c r="Y65" s="33" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="2:25">
       <c r="B66" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="U66" s="35" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="U66" s="31" t="s">
+        <v>247</v>
       </c>
       <c r="V66" s="11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="W66" s="11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="X66" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y66" s="41"/>
+        <v>249</v>
+      </c>
+      <c r="Y66" s="33"/>
     </row>
     <row r="67" spans="2:25">
       <c r="B67" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="U67" s="35" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="U67" s="31" t="s">
+        <v>252</v>
       </c>
       <c r="V67" s="11" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="W67" s="11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="X67" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y67" s="41"/>
+        <v>249</v>
+      </c>
+      <c r="Y67" s="33"/>
     </row>
     <row r="68" spans="2:25">
       <c r="B68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U68" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="V68" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="W68" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="U68" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="V68" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="W68" s="11" t="s">
-        <v>245</v>
-      </c>
       <c r="X68" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y68" s="41"/>
+        <v>249</v>
+      </c>
+      <c r="Y68" s="33"/>
     </row>
     <row r="69" ht="22.95" spans="2:25">
       <c r="B69" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="U69" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="V69" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="W69" s="43"/>
-      <c r="X69" s="43"/>
-      <c r="Y69" s="45"/>
+        <v>258</v>
+      </c>
+      <c r="U69" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="V69" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="37"/>
     </row>
-    <row r="70" ht="22.95"/>
     <row r="71" spans="2:24">
       <c r="B71" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C71" s="3"/>
       <c r="U71" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="W71" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="X71" s="40" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="W71" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="X71" s="32" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="72" ht="22.95" spans="2:24">
+    <row r="72" spans="2:24">
       <c r="B72" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="U72" s="35" t="s">
-        <v>261</v>
+        <v>264</v>
+      </c>
+      <c r="U72" s="31" t="s">
+        <v>265</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="X72" s="41" t="s">
-        <v>263</v>
+        <v>266</v>
+      </c>
+      <c r="X72" s="33" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="2:24">
       <c r="B73" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="U73" s="35" t="s">
-        <v>266</v>
+        <v>269</v>
+      </c>
+      <c r="U73" s="31" t="s">
+        <v>270</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="W73" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="X73" s="41" t="s">
-        <v>268</v>
+        <v>234</v>
+      </c>
+      <c r="W73" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="X73" s="33" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="2:24">
       <c r="B74" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="U74" s="35" t="s">
-        <v>271</v>
+        <v>274</v>
+      </c>
+      <c r="U74" s="31" t="s">
+        <v>275</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="X74" s="41" t="s">
-        <v>273</v>
+        <v>276</v>
+      </c>
+      <c r="X74" s="33" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="21:24">
-      <c r="U75" s="35" t="s">
-        <v>274</v>
+      <c r="U75" s="31" t="s">
+        <v>278</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="X75" s="41" t="s">
-        <v>276</v>
+        <v>279</v>
+      </c>
+      <c r="X75" s="33" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="76" ht="22.95" spans="3:24">
       <c r="C76" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="U76" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="V76" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="W76" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="X76" s="45" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="U76" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="V76" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="W76" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="X76" s="37" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="77" ht="22.95" spans="2:3">
       <c r="B77" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="2:23">
       <c r="B78" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="V78" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="W78" s="40" t="s">
         <v>208</v>
+      </c>
+      <c r="V78" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="W78" s="32" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="21:23">
-      <c r="U79" s="35" t="s">
-        <v>285</v>
+      <c r="U79" s="31" t="s">
+        <v>289</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="W79" s="41" t="s">
-        <v>287</v>
+        <v>290</v>
+      </c>
+      <c r="W79" s="33" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="21:23">
-      <c r="U80" s="35" t="s">
-        <v>288</v>
+      <c r="U80" s="31" t="s">
+        <v>292</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="W80" s="41" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="W80" s="33" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="21:23">
-      <c r="U81" s="35" t="s">
-        <v>291</v>
+      <c r="U81" s="31" t="s">
+        <v>295</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="W81" s="41" t="s">
-        <v>292</v>
+        <v>290</v>
+      </c>
+      <c r="W81" s="33" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="82" spans="21:23">
-      <c r="U82" s="35" t="s">
-        <v>293</v>
+      <c r="U82" s="31" t="s">
+        <v>297</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="W82" s="41" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="W82" s="33" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="21:23">
-      <c r="U83" s="35" t="s">
-        <v>295</v>
+      <c r="U83" s="31" t="s">
+        <v>299</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="W83" s="41" t="s">
-        <v>297</v>
+        <v>300</v>
+      </c>
+      <c r="W83" s="33" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="21:23">
-      <c r="U84" s="35" t="s">
-        <v>298</v>
+      <c r="U84" s="31" t="s">
+        <v>302</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="W84" s="41" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="W84" s="33" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="21:23">
-      <c r="U85" s="35" t="s">
-        <v>300</v>
+      <c r="U85" s="31" t="s">
+        <v>304</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="W85" s="41" t="s">
-        <v>302</v>
+        <v>305</v>
+      </c>
+      <c r="W85" s="33" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="21:23">
-      <c r="U86" s="35" t="s">
-        <v>303</v>
+      <c r="U86" s="31" t="s">
+        <v>307</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="W86" s="41" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="W86" s="33" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="21:23">
-      <c r="U87" s="35" t="s">
-        <v>305</v>
+      <c r="U87" s="31" t="s">
+        <v>309</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="W87" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
+      </c>
+      <c r="W87" s="33" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="88" ht="22.95" spans="21:23">
-      <c r="U88" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="V88" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="W88" s="45" t="s">
-        <v>309</v>
+      <c r="U88" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="V88" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="W88" s="37" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
